--- a/TPC/ESTAT1920 TP POR_1020881.xlsx
+++ b/TPC/ESTAT1920 TP POR_1020881.xlsx
@@ -911,7 +911,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1222,11 +1222,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="33521811"/>
-        <c:axId val="15054921"/>
+        <c:axId val="3804457"/>
+        <c:axId val="291257"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33521811"/>
+        <c:axId val="3804457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,14 +1282,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15054921"/>
+        <c:crossAx val="291257"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15054921"/>
+        <c:axId val="291257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33521811"/>
+        <c:crossAx val="3804457"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1401,7 +1401,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1479,25 +1479,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7,5000</c:v>
+                  <c:v>7.5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12,5000</c:v>
+                  <c:v>12.5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17,5000</c:v>
+                  <c:v>17.5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22,5000</c:v>
+                  <c:v>22.5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27,5000</c:v>
+                  <c:v>27.5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32,5000</c:v>
+                  <c:v>32.5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37,5000</c:v>
+                  <c:v>37.5000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1572,25 +1572,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7,5000</c:v>
+                  <c:v>7.5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12,5000</c:v>
+                  <c:v>12.5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17,5000</c:v>
+                  <c:v>17.5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22,5000</c:v>
+                  <c:v>22.5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27,5000</c:v>
+                  <c:v>27.5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32,5000</c:v>
+                  <c:v>32.5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37,5000</c:v>
+                  <c:v>37.5000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1628,11 +1628,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84735791"/>
-        <c:axId val="41163971"/>
+        <c:axId val="52442362"/>
+        <c:axId val="94841416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84735791"/>
+        <c:axId val="52442362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,14 +1688,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41163971"/>
+        <c:crossAx val="94841416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41163971"/>
+        <c:axId val="94841416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1760,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84735791"/>
+        <c:crossAx val="52442362"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1818,9 +1818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>349560</xdr:colOff>
+      <xdr:colOff>349200</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1828,8 +1828,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4749480" y="29092680"/>
-        <a:ext cx="8888040" cy="3237840"/>
+        <a:off x="3772080" y="29092680"/>
+        <a:ext cx="7118640" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1848,9 +1848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>348840</xdr:colOff>
+      <xdr:colOff>348480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1858,8 +1858,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4023000" y="5995440"/>
-        <a:ext cx="8854920" cy="3238200"/>
+        <a:off x="3193200" y="5995440"/>
+        <a:ext cx="7094880" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1892,8 +1892,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
   </cols>
@@ -5039,20 +5039,20 @@
   <dimension ref="A1:AA241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="6.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.53"/>

--- a/TPC/ESTAT1920 TP POR_1020881.xlsx
+++ b/TPC/ESTAT1920 TP POR_1020881.xlsx
@@ -1222,11 +1222,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="3804457"/>
-        <c:axId val="291257"/>
+        <c:axId val="59196170"/>
+        <c:axId val="15320308"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3804457"/>
+        <c:axId val="59196170"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,14 +1282,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291257"/>
+        <c:crossAx val="15320308"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291257"/>
+        <c:axId val="15320308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3804457"/>
+        <c:crossAx val="59196170"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1628,11 +1628,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="52442362"/>
-        <c:axId val="94841416"/>
+        <c:axId val="95406021"/>
+        <c:axId val="23870670"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52442362"/>
+        <c:axId val="95406021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,14 +1688,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94841416"/>
+        <c:crossAx val="23870670"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94841416"/>
+        <c:axId val="23870670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1760,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52442362"/>
+        <c:crossAx val="95406021"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1818,9 +1818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>349200</xdr:colOff>
+      <xdr:colOff>348840</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1829,7 +1829,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3772080" y="29092680"/>
-        <a:ext cx="7118640" cy="3237480"/>
+        <a:ext cx="7117560" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1848,9 +1848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>348480</xdr:colOff>
+      <xdr:colOff>348120</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1858,8 +1858,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3193200" y="5995440"/>
-        <a:ext cx="7094880" cy="3237840"/>
+        <a:off x="3192480" y="5995440"/>
+        <a:ext cx="7094520" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5038,8 +5038,8 @@
   </sheetPr>
   <dimension ref="A1:AA241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5197,11 +5197,13 @@
       <c r="H4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="45" t="n">
+      <c r="I4" s="45"/>
+      <c r="J4" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="K4" s="46" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
@@ -5863,11 +5865,13 @@
       <c r="H12" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="59" t="n">
+      <c r="I12" s="59"/>
+      <c r="J12" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="K12" s="51" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
       <c r="N12" s="52"/>

--- a/TPC/ESTAT1920 TP POR_1020881.xlsx
+++ b/TPC/ESTAT1920 TP POR_1020881.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t xml:space="preserve">TRABALHO PRÁTICO de ESTAT:2019/20</t>
   </si>
@@ -141,7 +141,7 @@
     <t xml:space="preserve">eiA</t>
   </si>
   <si>
-    <t xml:space="preserve">for e&gt;=5</t>
+    <t xml:space="preserve">for eiA&gt;=5</t>
   </si>
   <si>
     <t xml:space="preserve">Q0A</t>
@@ -204,7 +204,13 @@
     <t xml:space="preserve">CALCULATIONS</t>
   </si>
   <si>
-    <t xml:space="preserve">K-p-1=3</t>
+    <t xml:space="preserve">Condição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e&gt;=05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-p-1=</t>
   </si>
   <si>
     <t xml:space="preserve">SUMPRODUCT</t>
@@ -263,9 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">xinvchi=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-p-1=5</t>
   </si>
   <si>
     <t xml:space="preserve">skew</t>
@@ -373,7 +376,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +399,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF72BF44"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD3C1"/>
+        <bgColor rgb="FFFFFBCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -811,7 +820,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -819,11 +828,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,7 +906,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFCD3C1"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF72BF44"/>
@@ -911,7 +928,413 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>TEE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$N$3:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>niA/hi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$I$5:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$N$5:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$O$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>niB/hi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$I$5:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$O$5:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="17735224"/>
+        <c:axId val="60597765"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="17735224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60597765"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60597765"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Quant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17735224"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1222,11 +1645,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="59196170"/>
-        <c:axId val="15320308"/>
+        <c:axId val="88034489"/>
+        <c:axId val="35018164"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59196170"/>
+        <c:axId val="88034489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,14 +1705,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15320308"/>
+        <c:crossAx val="35018164"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15320308"/>
+        <c:axId val="35018164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,413 +1777,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59196170"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>TEE</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultados!$N$3:$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>niA/hi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Resultados!$I$5:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.5000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.5000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultados!$N$5:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultados!$O$3:$O$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>niB/hi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Resultados!$I$5:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.5000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.5000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultados!$O$5:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="95406021"/>
-        <c:axId val="23870670"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95406021"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>tempo</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23870670"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="23870670"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Quant</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="95406021"/>
+        <c:crossAx val="88034489"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1812,9 +1829,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -1828,8 +1845,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3772080" y="29092680"/>
-        <a:ext cx="7117560" cy="3237120"/>
+        <a:off x="3772440" y="29093040"/>
+        <a:ext cx="7117200" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1848,7 +1865,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>348120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
@@ -1859,7 +1876,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3192480" y="5995440"/>
-        <a:ext cx="7094520" cy="3237480"/>
+        <a:ext cx="7094160" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5038,8 +5055,8 @@
   </sheetPr>
   <dimension ref="A1:AA241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S28" activeCellId="0" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5055,7 +5072,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="6.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="15" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5942,7 +5961,7 @@
       <c r="Y13" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="Z13" s="61" t="n">
+      <c r="Z13" s="55" t="n">
         <f aca="false">SUM(Z5:Z10)</f>
         <v>7.22338796031458</v>
       </c>
@@ -6032,9 +6051,9 @@
       <c r="Y16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="61" t="n">
-        <f aca="false">7.8147</f>
-        <v>7.8147</v>
+      <c r="Z16" s="54" t="n">
+        <f aca="false">CHIINV(0.05,3)</f>
+        <v>7.81472790325118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,8 +6085,17 @@
         <v>59</v>
       </c>
       <c r="P17" s="64"/>
-      <c r="Y17" s="0" t="s">
+      <c r="V17" s="65" t="s">
         <v>60</v>
+      </c>
+      <c r="W17" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,6 +6137,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
+      <c r="O19" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="66"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="56" t="n">
@@ -6133,7 +6165,8 @@
       <c r="J20" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="5"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="n">
@@ -6216,8 +6249,8 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="65" t="s">
-        <v>61</v>
+      <c r="I24" s="67" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8091,7 +8124,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I122" s="5"/>
     </row>
@@ -8168,7 +8201,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -8187,7 +8220,7 @@
         <v>2605.42580673549</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,7 +8235,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8215,7 +8248,7 @@
         <v>21.7118817227957</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8230,7 +8263,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,8 +8287,8 @@
         <v>6</v>
       </c>
       <c r="C140" s="10"/>
-      <c r="D140" s="65"/>
-      <c r="E140" s="65"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="15" t="s">
@@ -8264,25 +8297,25 @@
       <c r="C141" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
     </row>
     <row r="142" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B142" s="66" t="n">
+      <c r="B142" s="68" t="n">
         <f aca="false">'Id. + dados'!F7</f>
         <v>3</v>
       </c>
-      <c r="C142" s="66" t="n">
+      <c r="C142" s="68" t="n">
         <f aca="false">'Id. + dados'!G17</f>
         <v>3</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="J142" s="67" t="s">
-        <v>68</v>
+      <c r="J142" s="69" t="s">
+        <v>70</v>
       </c>
       <c r="K142" s="44" t="s">
         <v>30</v>
@@ -8291,46 +8324,46 @@
         <v>31</v>
       </c>
       <c r="M142" s="44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N142" s="44" t="s">
         <v>35</v>
       </c>
       <c r="O142" s="44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P142" s="44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q142" s="21" t="s">
         <v>31</v>
       </c>
       <c r="R142" s="44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S142" s="44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T142" s="44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B143" s="66" t="n">
+      <c r="B143" s="68" t="n">
         <f aca="false">'Id. + dados'!F36</f>
         <v>3</v>
       </c>
-      <c r="C143" s="66" t="n">
+      <c r="C143" s="68" t="n">
         <f aca="false">'Id. + dados'!G20</f>
         <v>3</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="J143" s="67" t="s">
-        <v>75</v>
+      <c r="J143" s="69" t="s">
+        <v>77</v>
       </c>
       <c r="K143" s="47" t="n">
         <v>0</v>
@@ -8354,11 +8387,11 @@
       <c r="A144" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B144" s="66" t="n">
+      <c r="B144" s="68" t="n">
         <f aca="false">'Id. + dados'!F44</f>
         <v>3</v>
       </c>
-      <c r="C144" s="66" t="n">
+      <c r="C144" s="68" t="n">
         <f aca="false">'Id. + dados'!G69</f>
         <v>3</v>
       </c>
@@ -8403,11 +8436,11 @@
       <c r="A145" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B145" s="66" t="n">
+      <c r="B145" s="68" t="n">
         <f aca="false">'Id. + dados'!F74</f>
         <v>3</v>
       </c>
-      <c r="C145" s="66" t="n">
+      <c r="C145" s="68" t="n">
         <f aca="false">'Id. + dados'!G14</f>
         <v>4</v>
       </c>
@@ -8461,11 +8494,11 @@
       <c r="A146" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B146" s="66" t="n">
+      <c r="B146" s="68" t="n">
         <f aca="false">'Id. + dados'!F87</f>
         <v>3</v>
       </c>
-      <c r="C146" s="66" t="n">
+      <c r="C146" s="68" t="n">
         <f aca="false">'Id. + dados'!G57</f>
         <v>4</v>
       </c>
@@ -8519,11 +8552,11 @@
       <c r="A147" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B147" s="66" t="n">
+      <c r="B147" s="68" t="n">
         <f aca="false">'Id. + dados'!F91</f>
         <v>3</v>
       </c>
-      <c r="C147" s="66" t="n">
+      <c r="C147" s="68" t="n">
         <f aca="false">'Id. + dados'!G64</f>
         <v>4</v>
       </c>
@@ -8577,11 +8610,11 @@
       <c r="A148" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B148" s="66" t="n">
+      <c r="B148" s="68" t="n">
         <f aca="false">'Id. + dados'!F5</f>
         <v>4</v>
       </c>
-      <c r="C148" s="66" t="n">
+      <c r="C148" s="68" t="n">
         <f aca="false">'Id. + dados'!G73</f>
         <v>4</v>
       </c>
@@ -8635,11 +8668,11 @@
       <c r="A149" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B149" s="66" t="n">
+      <c r="B149" s="68" t="n">
         <f aca="false">'Id. + dados'!F9</f>
         <v>4</v>
       </c>
-      <c r="C149" s="66" t="n">
+      <c r="C149" s="68" t="n">
         <f aca="false">'Id. + dados'!G80</f>
         <v>4</v>
       </c>
@@ -8693,11 +8726,11 @@
       <c r="A150" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B150" s="66" t="n">
+      <c r="B150" s="68" t="n">
         <f aca="false">'Id. + dados'!F11</f>
         <v>4</v>
       </c>
-      <c r="C150" s="66" t="n">
+      <c r="C150" s="68" t="n">
         <f aca="false">'Id. + dados'!G93</f>
         <v>4</v>
       </c>
@@ -8751,11 +8784,11 @@
       <c r="A151" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B151" s="66" t="n">
+      <c r="B151" s="68" t="n">
         <f aca="false">'Id. + dados'!F16</f>
         <v>4</v>
       </c>
-      <c r="C151" s="66" t="n">
+      <c r="C151" s="68" t="n">
         <f aca="false">'Id. + dados'!G11</f>
         <v>5</v>
       </c>
@@ -8809,11 +8842,11 @@
       <c r="A152" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B152" s="66" t="n">
+      <c r="B152" s="68" t="n">
         <f aca="false">'Id. + dados'!F23</f>
         <v>4</v>
       </c>
-      <c r="C152" s="66" t="n">
+      <c r="C152" s="68" t="n">
         <f aca="false">'Id. + dados'!G18</f>
         <v>5</v>
       </c>
@@ -8867,11 +8900,11 @@
       <c r="A153" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B153" s="66" t="n">
+      <c r="B153" s="68" t="n">
         <f aca="false">'Id. + dados'!F55</f>
         <v>4</v>
       </c>
-      <c r="C153" s="66" t="n">
+      <c r="C153" s="68" t="n">
         <f aca="false">'Id. + dados'!G22</f>
         <v>5</v>
       </c>
@@ -8916,11 +8949,11 @@
       <c r="A154" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B154" s="66" t="n">
+      <c r="B154" s="68" t="n">
         <f aca="false">'Id. + dados'!F62</f>
         <v>4</v>
       </c>
-      <c r="C154" s="66" t="n">
+      <c r="C154" s="68" t="n">
         <f aca="false">'Id. + dados'!G38</f>
         <v>5</v>
       </c>
@@ -8965,11 +8998,11 @@
       <c r="A155" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B155" s="66" t="n">
+      <c r="B155" s="68" t="n">
         <f aca="false">'Id. + dados'!F75</f>
         <v>4</v>
       </c>
-      <c r="C155" s="66" t="n">
+      <c r="C155" s="68" t="n">
         <f aca="false">'Id. + dados'!G42</f>
         <v>5</v>
       </c>
@@ -9014,11 +9047,11 @@
       <c r="A156" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B156" s="66" t="n">
+      <c r="B156" s="68" t="n">
         <f aca="false">'Id. + dados'!F4</f>
         <v>5</v>
       </c>
-      <c r="C156" s="66" t="n">
+      <c r="C156" s="68" t="n">
         <f aca="false">'Id. + dados'!G51</f>
         <v>5</v>
       </c>
@@ -9063,11 +9096,11 @@
       <c r="A157" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B157" s="66" t="n">
+      <c r="B157" s="68" t="n">
         <f aca="false">'Id. + dados'!F15</f>
         <v>5</v>
       </c>
-      <c r="C157" s="66" t="n">
+      <c r="C157" s="68" t="n">
         <f aca="false">'Id. + dados'!G52</f>
         <v>5</v>
       </c>
@@ -9112,18 +9145,18 @@
       <c r="A158" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B158" s="66" t="n">
+      <c r="B158" s="68" t="n">
         <f aca="false">'Id. + dados'!F26</f>
         <v>5</v>
       </c>
-      <c r="C158" s="66" t="n">
+      <c r="C158" s="68" t="n">
         <f aca="false">'Id. + dados'!G54</f>
         <v>5</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="J158" s="44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K158" s="47" t="n">
         <v>0</v>
@@ -9147,11 +9180,11 @@
       <c r="A159" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B159" s="66" t="n">
+      <c r="B159" s="68" t="n">
         <f aca="false">'Id. + dados'!F29</f>
         <v>5</v>
       </c>
-      <c r="C159" s="66" t="n">
+      <c r="C159" s="68" t="n">
         <f aca="false">'Id. + dados'!G55</f>
         <v>5</v>
       </c>
@@ -9166,9 +9199,9 @@
         <v>90</v>
       </c>
       <c r="S159" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="T159" s="61" t="n">
+        <v>79</v>
+      </c>
+      <c r="T159" s="55" t="n">
         <f aca="false">SUM(T145:T152)</f>
         <v>8.55314909638611</v>
       </c>
@@ -9180,11 +9213,11 @@
       <c r="A160" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B160" s="66" t="n">
+      <c r="B160" s="68" t="n">
         <f aca="false">'Id. + dados'!F39</f>
         <v>5</v>
       </c>
-      <c r="C160" s="66" t="n">
+      <c r="C160" s="68" t="n">
         <f aca="false">'Id. + dados'!G63</f>
         <v>5</v>
       </c>
@@ -9198,18 +9231,18 @@
       <c r="A161" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B161" s="66" t="n">
+      <c r="B161" s="68" t="n">
         <f aca="false">'Id. + dados'!F41</f>
         <v>5</v>
       </c>
-      <c r="C161" s="66" t="n">
+      <c r="C161" s="68" t="n">
         <f aca="false">'Id. + dados'!G72</f>
         <v>5</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="K161" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S161" s="63" t="n">
         <v>0.05</v>
@@ -9219,11 +9252,11 @@
       <c r="A162" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B162" s="66" t="n">
+      <c r="B162" s="68" t="n">
         <f aca="false">'Id. + dados'!F50</f>
         <v>5</v>
       </c>
-      <c r="C162" s="66" t="n">
+      <c r="C162" s="68" t="n">
         <f aca="false">'Id. + dados'!G85</f>
         <v>5</v>
       </c>
@@ -9238,39 +9271,43 @@
         <v>7.51111111111111</v>
       </c>
       <c r="S162" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="T162" s="61" t="n">
-        <v>11.0705</v>
+        <v>81</v>
+      </c>
+      <c r="T162" s="54" t="n">
+        <f aca="false">CHIINV($S$161,$S$163)</f>
+        <v>11.0704976935164</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B163" s="66" t="n">
+      <c r="B163" s="68" t="n">
         <f aca="false">'Id. + dados'!F54</f>
         <v>5</v>
       </c>
-      <c r="C163" s="66" t="n">
+      <c r="C163" s="68" t="n">
         <f aca="false">'Id. + dados'!G92</f>
         <v>5</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="S163" s="0" t="s">
-        <v>80</v>
+      <c r="R163" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S163" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B164" s="66" t="n">
+      <c r="B164" s="68" t="n">
         <f aca="false">'Id. + dados'!F56</f>
         <v>5</v>
       </c>
-      <c r="C164" s="66" t="n">
+      <c r="C164" s="68" t="n">
         <f aca="false">'Id. + dados'!G5</f>
         <v>6</v>
       </c>
@@ -9281,11 +9318,11 @@
       <c r="A165" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B165" s="66" t="n">
+      <c r="B165" s="68" t="n">
         <f aca="false">'Id. + dados'!F61</f>
         <v>5</v>
       </c>
-      <c r="C165" s="66" t="n">
+      <c r="C165" s="68" t="n">
         <f aca="false">'Id. + dados'!G7</f>
         <v>6</v>
       </c>
@@ -9296,11 +9333,11 @@
       <c r="A166" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B166" s="66" t="n">
+      <c r="B166" s="68" t="n">
         <f aca="false">'Id. + dados'!F63</f>
         <v>5</v>
       </c>
-      <c r="C166" s="66" t="n">
+      <c r="C166" s="68" t="n">
         <f aca="false">'Id. + dados'!G23</f>
         <v>6</v>
       </c>
@@ -9311,11 +9348,11 @@
       <c r="A167" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B167" s="66" t="n">
+      <c r="B167" s="68" t="n">
         <f aca="false">'Id. + dados'!F70</f>
         <v>5</v>
       </c>
-      <c r="C167" s="66" t="n">
+      <c r="C167" s="68" t="n">
         <f aca="false">'Id. + dados'!G37</f>
         <v>6</v>
       </c>
@@ -9326,11 +9363,11 @@
       <c r="A168" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B168" s="66" t="n">
+      <c r="B168" s="68" t="n">
         <f aca="false">'Id. + dados'!F80</f>
         <v>5</v>
       </c>
-      <c r="C168" s="66" t="n">
+      <c r="C168" s="68" t="n">
         <f aca="false">'Id. + dados'!G40</f>
         <v>6</v>
       </c>
@@ -9341,11 +9378,11 @@
       <c r="A169" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B169" s="66" t="n">
+      <c r="B169" s="68" t="n">
         <f aca="false">'Id. + dados'!F81</f>
         <v>5</v>
       </c>
-      <c r="C169" s="66" t="n">
+      <c r="C169" s="68" t="n">
         <f aca="false">'Id. + dados'!G49</f>
         <v>6</v>
       </c>
@@ -9356,11 +9393,11 @@
       <c r="A170" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B170" s="66" t="n">
+      <c r="B170" s="68" t="n">
         <f aca="false">'Id. + dados'!F83</f>
         <v>5</v>
       </c>
-      <c r="C170" s="66" t="n">
+      <c r="C170" s="68" t="n">
         <f aca="false">'Id. + dados'!G76</f>
         <v>6</v>
       </c>
@@ -9371,11 +9408,11 @@
       <c r="A171" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B171" s="66" t="n">
+      <c r="B171" s="68" t="n">
         <f aca="false">'Id. + dados'!F85</f>
         <v>5</v>
       </c>
-      <c r="C171" s="66" t="n">
+      <c r="C171" s="68" t="n">
         <f aca="false">'Id. + dados'!G6</f>
         <v>7</v>
       </c>
@@ -9386,11 +9423,11 @@
       <c r="A172" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B172" s="66" t="n">
+      <c r="B172" s="68" t="n">
         <f aca="false">'Id. + dados'!F88</f>
         <v>5</v>
       </c>
-      <c r="C172" s="66" t="n">
+      <c r="C172" s="68" t="n">
         <f aca="false">'Id. + dados'!G10</f>
         <v>7</v>
       </c>
@@ -9401,11 +9438,11 @@
       <c r="A173" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B173" s="66" t="n">
+      <c r="B173" s="68" t="n">
         <f aca="false">'Id. + dados'!F92</f>
         <v>5</v>
       </c>
-      <c r="C173" s="66" t="n">
+      <c r="C173" s="68" t="n">
         <f aca="false">'Id. + dados'!G21</f>
         <v>7</v>
       </c>
@@ -9416,11 +9453,11 @@
       <c r="A174" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B174" s="66" t="n">
+      <c r="B174" s="68" t="n">
         <f aca="false">'Id. + dados'!F93</f>
         <v>5</v>
       </c>
-      <c r="C174" s="66" t="n">
+      <c r="C174" s="68" t="n">
         <f aca="false">'Id. + dados'!G26</f>
         <v>7</v>
       </c>
@@ -9431,11 +9468,11 @@
       <c r="A175" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B175" s="66" t="n">
+      <c r="B175" s="68" t="n">
         <f aca="false">'Id. + dados'!F12</f>
         <v>6</v>
       </c>
-      <c r="C175" s="66" t="n">
+      <c r="C175" s="68" t="n">
         <f aca="false">'Id. + dados'!G27</f>
         <v>7</v>
       </c>
@@ -9446,11 +9483,11 @@
       <c r="A176" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B176" s="66" t="n">
+      <c r="B176" s="68" t="n">
         <f aca="false">'Id. + dados'!F14</f>
         <v>6</v>
       </c>
-      <c r="C176" s="66" t="n">
+      <c r="C176" s="68" t="n">
         <f aca="false">'Id. + dados'!G29</f>
         <v>7</v>
       </c>
@@ -9461,11 +9498,11 @@
       <c r="A177" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B177" s="66" t="n">
+      <c r="B177" s="68" t="n">
         <f aca="false">'Id. + dados'!F20</f>
         <v>6</v>
       </c>
-      <c r="C177" s="66" t="n">
+      <c r="C177" s="68" t="n">
         <f aca="false">'Id. + dados'!G34</f>
         <v>7</v>
       </c>
@@ -9476,11 +9513,11 @@
       <c r="A178" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B178" s="66" t="n">
+      <c r="B178" s="68" t="n">
         <f aca="false">'Id. + dados'!F21</f>
         <v>6</v>
       </c>
-      <c r="C178" s="66" t="n">
+      <c r="C178" s="68" t="n">
         <f aca="false">'Id. + dados'!G35</f>
         <v>7</v>
       </c>
@@ -9491,11 +9528,11 @@
       <c r="A179" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B179" s="66" t="n">
+      <c r="B179" s="68" t="n">
         <f aca="false">'Id. + dados'!F22</f>
         <v>6</v>
       </c>
-      <c r="C179" s="66" t="n">
+      <c r="C179" s="68" t="n">
         <f aca="false">'Id. + dados'!G44</f>
         <v>7</v>
       </c>
@@ -9506,11 +9543,11 @@
       <c r="A180" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B180" s="66" t="n">
+      <c r="B180" s="68" t="n">
         <f aca="false">'Id. + dados'!F25</f>
         <v>6</v>
       </c>
-      <c r="C180" s="66" t="n">
+      <c r="C180" s="68" t="n">
         <f aca="false">'Id. + dados'!G48</f>
         <v>7</v>
       </c>
@@ -9521,11 +9558,11 @@
       <c r="A181" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B181" s="66" t="n">
+      <c r="B181" s="68" t="n">
         <f aca="false">'Id. + dados'!F32</f>
         <v>6</v>
       </c>
-      <c r="C181" s="66" t="n">
+      <c r="C181" s="68" t="n">
         <f aca="false">'Id. + dados'!G53</f>
         <v>7</v>
       </c>
@@ -9536,11 +9573,11 @@
       <c r="A182" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B182" s="66" t="n">
+      <c r="B182" s="68" t="n">
         <f aca="false">'Id. + dados'!F33</f>
         <v>6</v>
       </c>
-      <c r="C182" s="66" t="n">
+      <c r="C182" s="68" t="n">
         <f aca="false">'Id. + dados'!G58</f>
         <v>7</v>
       </c>
@@ -9551,11 +9588,11 @@
       <c r="A183" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B183" s="66" t="n">
+      <c r="B183" s="68" t="n">
         <f aca="false">'Id. + dados'!F38</f>
         <v>6</v>
       </c>
-      <c r="C183" s="66" t="n">
+      <c r="C183" s="68" t="n">
         <f aca="false">'Id. + dados'!G59</f>
         <v>7</v>
       </c>
@@ -9566,11 +9603,11 @@
       <c r="A184" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B184" s="66" t="n">
+      <c r="B184" s="68" t="n">
         <f aca="false">'Id. + dados'!F46</f>
         <v>6</v>
       </c>
-      <c r="C184" s="66" t="n">
+      <c r="C184" s="68" t="n">
         <f aca="false">'Id. + dados'!G60</f>
         <v>7</v>
       </c>
@@ -9581,11 +9618,11 @@
       <c r="A185" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B185" s="66" t="n">
+      <c r="B185" s="68" t="n">
         <f aca="false">'Id. + dados'!F51</f>
         <v>6</v>
       </c>
-      <c r="C185" s="66" t="n">
+      <c r="C185" s="68" t="n">
         <f aca="false">'Id. + dados'!G71</f>
         <v>7</v>
       </c>
@@ -9596,11 +9633,11 @@
       <c r="A186" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B186" s="66" t="n">
+      <c r="B186" s="68" t="n">
         <f aca="false">'Id. + dados'!F52</f>
         <v>6</v>
       </c>
-      <c r="C186" s="66" t="n">
+      <c r="C186" s="68" t="n">
         <f aca="false">'Id. + dados'!G77</f>
         <v>7</v>
       </c>
@@ -9611,11 +9648,11 @@
       <c r="A187" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B187" s="66" t="n">
+      <c r="B187" s="68" t="n">
         <f aca="false">'Id. + dados'!F53</f>
         <v>6</v>
       </c>
-      <c r="C187" s="66" t="n">
+      <c r="C187" s="68" t="n">
         <f aca="false">'Id. + dados'!G78</f>
         <v>7</v>
       </c>
@@ -9626,11 +9663,11 @@
       <c r="A188" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B188" s="66" t="n">
+      <c r="B188" s="68" t="n">
         <f aca="false">'Id. + dados'!F57</f>
         <v>6</v>
       </c>
-      <c r="C188" s="66" t="n">
+      <c r="C188" s="68" t="n">
         <f aca="false">'Id. + dados'!G86</f>
         <v>7</v>
       </c>
@@ -9641,11 +9678,11 @@
       <c r="A189" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B189" s="66" t="n">
+      <c r="B189" s="68" t="n">
         <f aca="false">'Id. + dados'!F65</f>
         <v>6</v>
       </c>
-      <c r="C189" s="66" t="n">
+      <c r="C189" s="68" t="n">
         <f aca="false">'Id. + dados'!G87</f>
         <v>7</v>
       </c>
@@ -9656,11 +9693,11 @@
       <c r="A190" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B190" s="66" t="n">
+      <c r="B190" s="68" t="n">
         <f aca="false">'Id. + dados'!F71</f>
         <v>6</v>
       </c>
-      <c r="C190" s="66" t="n">
+      <c r="C190" s="68" t="n">
         <f aca="false">'Id. + dados'!G4</f>
         <v>8</v>
       </c>
@@ -9671,11 +9708,11 @@
       <c r="A191" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B191" s="66" t="n">
+      <c r="B191" s="68" t="n">
         <f aca="false">'Id. + dados'!F8</f>
         <v>7</v>
       </c>
-      <c r="C191" s="66" t="n">
+      <c r="C191" s="68" t="n">
         <f aca="false">'Id. + dados'!G15</f>
         <v>8</v>
       </c>
@@ -9686,11 +9723,11 @@
       <c r="A192" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B192" s="66" t="n">
+      <c r="B192" s="68" t="n">
         <f aca="false">'Id. + dados'!F27</f>
         <v>7</v>
       </c>
-      <c r="C192" s="66" t="n">
+      <c r="C192" s="68" t="n">
         <f aca="false">'Id. + dados'!G16</f>
         <v>8</v>
       </c>
@@ -9701,11 +9738,11 @@
       <c r="A193" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B193" s="66" t="n">
+      <c r="B193" s="68" t="n">
         <f aca="false">'Id. + dados'!F31</f>
         <v>7</v>
       </c>
-      <c r="C193" s="66" t="n">
+      <c r="C193" s="68" t="n">
         <f aca="false">'Id. + dados'!G24</f>
         <v>8</v>
       </c>
@@ -9716,11 +9753,11 @@
       <c r="A194" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B194" s="66" t="n">
+      <c r="B194" s="68" t="n">
         <f aca="false">'Id. + dados'!F35</f>
         <v>7</v>
       </c>
-      <c r="C194" s="66" t="n">
+      <c r="C194" s="68" t="n">
         <f aca="false">'Id. + dados'!G28</f>
         <v>8</v>
       </c>
@@ -9731,11 +9768,11 @@
       <c r="A195" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B195" s="66" t="n">
+      <c r="B195" s="68" t="n">
         <f aca="false">'Id. + dados'!F40</f>
         <v>7</v>
       </c>
-      <c r="C195" s="66" t="n">
+      <c r="C195" s="68" t="n">
         <f aca="false">'Id. + dados'!G31</f>
         <v>8</v>
       </c>
@@ -9746,11 +9783,11 @@
       <c r="A196" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B196" s="66" t="n">
+      <c r="B196" s="68" t="n">
         <f aca="false">'Id. + dados'!F43</f>
         <v>7</v>
       </c>
-      <c r="C196" s="66" t="n">
+      <c r="C196" s="68" t="n">
         <f aca="false">'Id. + dados'!G36</f>
         <v>8</v>
       </c>
@@ -9761,11 +9798,11 @@
       <c r="A197" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B197" s="66" t="n">
+      <c r="B197" s="68" t="n">
         <f aca="false">'Id. + dados'!F47</f>
         <v>7</v>
       </c>
-      <c r="C197" s="66" t="n">
+      <c r="C197" s="68" t="n">
         <f aca="false">'Id. + dados'!G46</f>
         <v>8</v>
       </c>
@@ -9776,11 +9813,11 @@
       <c r="A198" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B198" s="66" t="n">
+      <c r="B198" s="68" t="n">
         <f aca="false">'Id. + dados'!F49</f>
         <v>7</v>
       </c>
-      <c r="C198" s="66" t="n">
+      <c r="C198" s="68" t="n">
         <f aca="false">'Id. + dados'!G50</f>
         <v>8</v>
       </c>
@@ -9791,11 +9828,11 @@
       <c r="A199" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B199" s="66" t="n">
+      <c r="B199" s="68" t="n">
         <f aca="false">'Id. + dados'!F59</f>
         <v>7</v>
       </c>
-      <c r="C199" s="66" t="n">
+      <c r="C199" s="68" t="n">
         <f aca="false">'Id. + dados'!G62</f>
         <v>8</v>
       </c>
@@ -9806,11 +9843,11 @@
       <c r="A200" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="B200" s="66" t="n">
+      <c r="B200" s="68" t="n">
         <f aca="false">'Id. + dados'!F76</f>
         <v>7</v>
       </c>
-      <c r="C200" s="66" t="n">
+      <c r="C200" s="68" t="n">
         <f aca="false">'Id. + dados'!G74</f>
         <v>8</v>
       </c>
@@ -9821,11 +9858,11 @@
       <c r="A201" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B201" s="66" t="n">
+      <c r="B201" s="68" t="n">
         <f aca="false">'Id. + dados'!F77</f>
         <v>7</v>
       </c>
-      <c r="C201" s="66" t="n">
+      <c r="C201" s="68" t="n">
         <f aca="false">'Id. + dados'!G75</f>
         <v>8</v>
       </c>
@@ -9836,11 +9873,11 @@
       <c r="A202" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="B202" s="66" t="n">
+      <c r="B202" s="68" t="n">
         <f aca="false">'Id. + dados'!F79</f>
         <v>7</v>
       </c>
-      <c r="C202" s="66" t="n">
+      <c r="C202" s="68" t="n">
         <f aca="false">'Id. + dados'!G79</f>
         <v>8</v>
       </c>
@@ -9851,11 +9888,11 @@
       <c r="A203" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="B203" s="66" t="n">
+      <c r="B203" s="68" t="n">
         <f aca="false">'Id. + dados'!F90</f>
         <v>7</v>
       </c>
-      <c r="C203" s="66" t="n">
+      <c r="C203" s="68" t="n">
         <f aca="false">'Id. + dados'!G83</f>
         <v>8</v>
       </c>
@@ -9866,11 +9903,11 @@
       <c r="A204" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B204" s="66" t="n">
+      <c r="B204" s="68" t="n">
         <f aca="false">'Id. + dados'!F6</f>
         <v>8</v>
       </c>
-      <c r="C204" s="66" t="n">
+      <c r="C204" s="68" t="n">
         <f aca="false">'Id. + dados'!G88</f>
         <v>8</v>
       </c>
@@ -9881,11 +9918,11 @@
       <c r="A205" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B205" s="66" t="n">
+      <c r="B205" s="68" t="n">
         <f aca="false">'Id. + dados'!F17</f>
         <v>8</v>
       </c>
-      <c r="C205" s="66" t="n">
+      <c r="C205" s="68" t="n">
         <f aca="false">'Id. + dados'!G8</f>
         <v>9</v>
       </c>
@@ -9896,11 +9933,11 @@
       <c r="A206" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B206" s="66" t="n">
+      <c r="B206" s="68" t="n">
         <f aca="false">'Id. + dados'!F24</f>
         <v>8</v>
       </c>
-      <c r="C206" s="66" t="n">
+      <c r="C206" s="68" t="n">
         <f aca="false">'Id. + dados'!G12</f>
         <v>9</v>
       </c>
@@ -9911,11 +9948,11 @@
       <c r="A207" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B207" s="66" t="n">
+      <c r="B207" s="68" t="n">
         <f aca="false">'Id. + dados'!F34</f>
         <v>8</v>
       </c>
-      <c r="C207" s="66" t="n">
+      <c r="C207" s="68" t="n">
         <f aca="false">'Id. + dados'!G25</f>
         <v>9</v>
       </c>
@@ -9926,11 +9963,11 @@
       <c r="A208" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B208" s="66" t="n">
+      <c r="B208" s="68" t="n">
         <f aca="false">'Id. + dados'!F58</f>
         <v>8</v>
       </c>
-      <c r="C208" s="66" t="n">
+      <c r="C208" s="68" t="n">
         <f aca="false">'Id. + dados'!G39</f>
         <v>9</v>
       </c>
@@ -9941,11 +9978,11 @@
       <c r="A209" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B209" s="66" t="n">
+      <c r="B209" s="68" t="n">
         <f aca="false">'Id. + dados'!F64</f>
         <v>8</v>
       </c>
-      <c r="C209" s="66" t="n">
+      <c r="C209" s="68" t="n">
         <f aca="false">'Id. + dados'!G43</f>
         <v>9</v>
       </c>
@@ -9956,11 +9993,11 @@
       <c r="A210" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B210" s="66" t="n">
+      <c r="B210" s="68" t="n">
         <f aca="false">'Id. + dados'!F68</f>
         <v>8</v>
       </c>
-      <c r="C210" s="66" t="n">
+      <c r="C210" s="68" t="n">
         <f aca="false">'Id. + dados'!G47</f>
         <v>9</v>
       </c>
@@ -9971,11 +10008,11 @@
       <c r="A211" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B211" s="66" t="n">
+      <c r="B211" s="68" t="n">
         <f aca="false">'Id. + dados'!F72</f>
         <v>8</v>
       </c>
-      <c r="C211" s="66" t="n">
+      <c r="C211" s="68" t="n">
         <f aca="false">'Id. + dados'!G89</f>
         <v>9</v>
       </c>
@@ -9986,11 +10023,11 @@
       <c r="A212" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B212" s="66" t="n">
+      <c r="B212" s="68" t="n">
         <f aca="false">'Id. + dados'!F84</f>
         <v>8</v>
       </c>
-      <c r="C212" s="66" t="n">
+      <c r="C212" s="68" t="n">
         <f aca="false">'Id. + dados'!G90</f>
         <v>9</v>
       </c>
@@ -10001,11 +10038,11 @@
       <c r="A213" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B213" s="66" t="n">
+      <c r="B213" s="68" t="n">
         <f aca="false">'Id. + dados'!F86</f>
         <v>8</v>
       </c>
-      <c r="C213" s="66" t="n">
+      <c r="C213" s="68" t="n">
         <f aca="false">'Id. + dados'!G19</f>
         <v>10</v>
       </c>
@@ -10016,11 +10053,11 @@
       <c r="A214" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B214" s="66" t="n">
+      <c r="B214" s="68" t="n">
         <f aca="false">'Id. + dados'!F89</f>
         <v>8</v>
       </c>
-      <c r="C214" s="66" t="n">
+      <c r="C214" s="68" t="n">
         <f aca="false">'Id. + dados'!G30</f>
         <v>10</v>
       </c>
@@ -10031,11 +10068,11 @@
       <c r="A215" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B215" s="66" t="n">
+      <c r="B215" s="68" t="n">
         <f aca="false">'Id. + dados'!F10</f>
         <v>9</v>
       </c>
-      <c r="C215" s="66" t="n">
+      <c r="C215" s="68" t="n">
         <f aca="false">'Id. + dados'!G32</f>
         <v>10</v>
       </c>
@@ -10046,11 +10083,11 @@
       <c r="A216" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B216" s="66" t="n">
+      <c r="B216" s="68" t="n">
         <f aca="false">'Id. + dados'!F37</f>
         <v>9</v>
       </c>
-      <c r="C216" s="66" t="n">
+      <c r="C216" s="68" t="n">
         <f aca="false">'Id. + dados'!G45</f>
         <v>10</v>
       </c>
@@ -10061,11 +10098,11 @@
       <c r="A217" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B217" s="66" t="n">
+      <c r="B217" s="68" t="n">
         <f aca="false">'Id. + dados'!F42</f>
         <v>9</v>
       </c>
-      <c r="C217" s="66" t="n">
+      <c r="C217" s="68" t="n">
         <f aca="false">'Id. + dados'!G66</f>
         <v>10</v>
       </c>
@@ -10076,11 +10113,11 @@
       <c r="A218" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B218" s="66" t="n">
+      <c r="B218" s="68" t="n">
         <f aca="false">'Id. + dados'!F69</f>
         <v>9</v>
       </c>
-      <c r="C218" s="66" t="n">
+      <c r="C218" s="68" t="n">
         <f aca="false">'Id. + dados'!G67</f>
         <v>10</v>
       </c>
@@ -10091,11 +10128,11 @@
       <c r="A219" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B219" s="66" t="n">
+      <c r="B219" s="68" t="n">
         <f aca="false">'Id. + dados'!F73</f>
         <v>9</v>
       </c>
-      <c r="C219" s="66" t="n">
+      <c r="C219" s="68" t="n">
         <f aca="false">'Id. + dados'!G68</f>
         <v>10</v>
       </c>
@@ -10106,11 +10143,11 @@
       <c r="A220" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B220" s="66" t="n">
+      <c r="B220" s="68" t="n">
         <f aca="false">'Id. + dados'!F82</f>
         <v>9</v>
       </c>
-      <c r="C220" s="66" t="n">
+      <c r="C220" s="68" t="n">
         <f aca="false">'Id. + dados'!G81</f>
         <v>10</v>
       </c>
@@ -10121,11 +10158,11 @@
       <c r="A221" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B221" s="66" t="n">
+      <c r="B221" s="68" t="n">
         <f aca="false">'Id. + dados'!F19</f>
         <v>10</v>
       </c>
-      <c r="C221" s="66" t="n">
+      <c r="C221" s="68" t="n">
         <f aca="false">'Id. + dados'!G82</f>
         <v>10</v>
       </c>
@@ -10136,11 +10173,11 @@
       <c r="A222" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B222" s="66" t="n">
+      <c r="B222" s="68" t="n">
         <f aca="false">'Id. + dados'!F28</f>
         <v>10</v>
       </c>
-      <c r="C222" s="66" t="n">
+      <c r="C222" s="68" t="n">
         <f aca="false">'Id. + dados'!G84</f>
         <v>10</v>
       </c>
@@ -10151,11 +10188,11 @@
       <c r="A223" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="B223" s="66" t="n">
+      <c r="B223" s="68" t="n">
         <f aca="false">'Id. + dados'!F48</f>
         <v>10</v>
       </c>
-      <c r="C223" s="66" t="n">
+      <c r="C223" s="68" t="n">
         <f aca="false">'Id. + dados'!G91</f>
         <v>10</v>
       </c>
@@ -10166,11 +10203,11 @@
       <c r="A224" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B224" s="66" t="n">
+      <c r="B224" s="68" t="n">
         <f aca="false">'Id. + dados'!F60</f>
         <v>10</v>
       </c>
-      <c r="C224" s="66" t="n">
+      <c r="C224" s="68" t="n">
         <f aca="false">'Id. + dados'!G9</f>
         <v>11</v>
       </c>
@@ -10181,11 +10218,11 @@
       <c r="A225" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="B225" s="66" t="n">
+      <c r="B225" s="68" t="n">
         <f aca="false">'Id. + dados'!F66</f>
         <v>10</v>
       </c>
-      <c r="C225" s="66" t="n">
+      <c r="C225" s="68" t="n">
         <f aca="false">'Id. + dados'!G61</f>
         <v>11</v>
       </c>
@@ -10196,11 +10233,11 @@
       <c r="A226" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B226" s="66" t="n">
+      <c r="B226" s="68" t="n">
         <f aca="false">'Id. + dados'!F18</f>
         <v>11</v>
       </c>
-      <c r="C226" s="66" t="n">
+      <c r="C226" s="68" t="n">
         <f aca="false">'Id. + dados'!G70</f>
         <v>11</v>
       </c>
@@ -10211,11 +10248,11 @@
       <c r="A227" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="B227" s="66" t="n">
+      <c r="B227" s="68" t="n">
         <f aca="false">'Id. + dados'!F30</f>
         <v>11</v>
       </c>
-      <c r="C227" s="66" t="n">
+      <c r="C227" s="68" t="n">
         <f aca="false">'Id. + dados'!G56</f>
         <v>12</v>
       </c>
@@ -10226,11 +10263,11 @@
       <c r="A228" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="B228" s="66" t="n">
+      <c r="B228" s="68" t="n">
         <f aca="false">'Id. + dados'!F67</f>
         <v>11</v>
       </c>
-      <c r="C228" s="66" t="n">
+      <c r="C228" s="68" t="n">
         <f aca="false">'Id. + dados'!G65</f>
         <v>12</v>
       </c>
@@ -10241,11 +10278,11 @@
       <c r="A229" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="B229" s="66" t="n">
+      <c r="B229" s="68" t="n">
         <f aca="false">'Id. + dados'!F78</f>
         <v>11</v>
       </c>
-      <c r="C229" s="66" t="n">
+      <c r="C229" s="68" t="n">
         <f aca="false">'Id. + dados'!G41</f>
         <v>13</v>
       </c>
@@ -10256,11 +10293,11 @@
       <c r="A230" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B230" s="66" t="n">
+      <c r="B230" s="68" t="n">
         <f aca="false">'Id. + dados'!F45</f>
         <v>13</v>
       </c>
-      <c r="C230" s="66" t="n">
+      <c r="C230" s="68" t="n">
         <f aca="false">'Id. + dados'!G33</f>
         <v>15</v>
       </c>
@@ -10271,11 +10308,11 @@
       <c r="A231" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B231" s="66" t="n">
+      <c r="B231" s="68" t="n">
         <f aca="false">'Id. + dados'!F13</f>
         <v>14</v>
       </c>
-      <c r="C231" s="66" t="n">
+      <c r="C231" s="68" t="n">
         <f aca="false">'Id. + dados'!G13</f>
         <v>16</v>
       </c>
@@ -10292,7 +10329,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10305,7 +10342,7 @@
         <v>676</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10320,7 +10357,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10333,7 +10370,7 @@
         <v>7.51111111111111</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10348,7 +10385,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10362,7 +10399,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -10372,6 +10409,7 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="O17:P18"/>
+    <mergeCell ref="O19:P20"/>
     <mergeCell ref="B139:C139"/>
     <mergeCell ref="B140:C140"/>
   </mergeCells>

--- a/TPC/ESTAT1920 TP POR_1020881.xlsx
+++ b/TPC/ESTAT1920 TP POR_1020881.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t xml:space="preserve">TRABALHO PRÁTICO de ESTAT:2019/20</t>
   </si>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">δ^2</t>
   </si>
   <si>
-    <t xml:space="preserve">K=6</t>
+    <t xml:space="preserve">k</t>
   </si>
   <si>
     <t xml:space="preserve">PASS</t>
@@ -189,7 +189,7 @@
     <t xml:space="preserve">δ</t>
   </si>
   <si>
-    <t xml:space="preserve">Param=2</t>
+    <t xml:space="preserve">m</t>
   </si>
   <si>
     <t xml:space="preserve">Média A</t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve">Média B</t>
   </si>
   <si>
-    <t xml:space="preserve">xIncChi</t>
+    <t xml:space="preserve">xInvChi</t>
   </si>
   <si>
     <t xml:space="preserve">CALCULATIONS</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">e&gt;=05</t>
   </si>
   <si>
-    <t xml:space="preserve">K-p-1=</t>
+    <t xml:space="preserve">K-m-1</t>
   </si>
   <si>
     <t xml:space="preserve">SUMPRODUCT</t>
@@ -262,13 +262,16 @@
     <t xml:space="preserve">&gt;16</t>
   </si>
   <si>
-    <t xml:space="preserve">K=8</t>
+    <t xml:space="preserve">n classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n parâm</t>
   </si>
   <si>
     <t xml:space="preserve">Média</t>
   </si>
   <si>
-    <t xml:space="preserve">xinvchi=</t>
+    <t xml:space="preserve">xinvchi</t>
   </si>
   <si>
     <t xml:space="preserve">skew</t>
@@ -284,13 +287,12 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -309,11 +311,87 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -321,14 +399,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -336,7 +412,6 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -344,21 +419,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -376,7 +448,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,14 +457,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFBCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFCD3C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFBEE3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBEE3D3"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFBCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -404,16 +518,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD3C1"/>
-        <bgColor rgb="FFFFFBCC"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -550,7 +679,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,25 +703,76 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,23 +784,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,43 +808,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,7 +848,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -680,11 +856,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,35 +872,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -728,43 +908,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -772,31 +952,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -808,39 +988,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,22 +1032,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -871,26 +1072,26 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFBCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFBEE3D3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -901,10 +1102,10 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFBEE3D3"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFCD3C1"/>
       <rgbColor rgb="FF3366FF"/>
@@ -928,413 +1129,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>TEE</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultados!$N$3:$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>niA/hi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Resultados!$I$5:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.5000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.5000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultados!$N$5:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultados!$O$3:$O$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>niB/hi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Resultados!$I$5:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.5000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.5000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultados!$O$5:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="17735224"/>
-        <c:axId val="60597765"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="17735224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>tempo</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="60597765"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="60597765"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Quant</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="17735224"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1378,7 +1173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resultados!$K$142:$K$142</c:f>
+              <c:f>Resultados!$K$142</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1513,7 +1308,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resultados!$L$142:$L$142</c:f>
+              <c:f>Resultados!$L$142</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1645,11 +1440,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88034489"/>
-        <c:axId val="35018164"/>
+        <c:axId val="91469964"/>
+        <c:axId val="95159870"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88034489"/>
+        <c:axId val="91469964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,14 +1500,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35018164"/>
+        <c:crossAx val="95159870"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35018164"/>
+        <c:axId val="95159870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1572,413 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88034489"/>
+        <c:crossAx val="91469964"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>TEE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>niA/hi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$I$5:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7,5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12,5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17,5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22,5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27,5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32,5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37,5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$N$5:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>niB/hi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$I$5:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7,5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12,5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17,5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22,5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27,5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32,5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37,5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$O$5:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="22503802"/>
+        <c:axId val="82532894"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="22503802"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82532894"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82532894"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Quant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22503802"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1829,9 +2030,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -1845,8 +2046,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3772440" y="29093040"/>
-        <a:ext cx="7117200" cy="3236760"/>
+        <a:off x="4752360" y="29093760"/>
+        <a:ext cx="8883000" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1875,8 +2076,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3192480" y="5995440"/>
-        <a:ext cx="7094160" cy="3237480"/>
+        <a:off x="4023720" y="5995440"/>
+        <a:ext cx="8851680" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1909,8 +2110,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
   </cols>
@@ -5055,15 +5256,15 @@
   </sheetPr>
   <dimension ref="A1:AA241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S28" activeCellId="0" sqref="S28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.74"/>
@@ -5073,7 +5274,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="6.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="15" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -5958,14 +6159,17 @@
         <v>37.0990896358543</v>
       </c>
       <c r="W13" s="51"/>
-      <c r="Y13" s="61" t="s">
+      <c r="X13" s="61" t="s">
         <v>52</v>
+      </c>
+      <c r="Y13" s="62" t="n">
+        <v>6</v>
       </c>
       <c r="Z13" s="55" t="n">
         <f aca="false">SUM(Z5:Z10)</f>
         <v>7.22338796031458</v>
       </c>
-      <c r="AA13" s="62" t="s">
+      <c r="AA13" s="63" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5999,8 +6203,11 @@
         <v>6.09090220212526</v>
       </c>
       <c r="W14" s="51"/>
-      <c r="Y14" s="61" t="s">
+      <c r="X14" s="61" t="s">
         <v>55</v>
+      </c>
+      <c r="Y14" s="62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6021,7 +6228,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="Y15" s="63" t="n">
+      <c r="Y15" s="64" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -6048,7 +6255,7 @@
       <c r="J16" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Y16" s="0" t="s">
+      <c r="Y16" s="62" t="s">
         <v>58</v>
       </c>
       <c r="Z16" s="54" t="n">
@@ -6081,20 +6288,21 @@
         <f aca="false">SUMPRODUCT(I5:I11,Q5:Q11)</f>
         <v>21.5416666666667</v>
       </c>
-      <c r="O17" s="64" t="s">
+      <c r="O17" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="64"/>
-      <c r="V17" s="65" t="s">
+      <c r="P17" s="65"/>
+      <c r="V17" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="W17" s="65" t="s">
+      <c r="W17" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="X17" s="0" t="s">
+      <c r="X17" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Y17" s="62" t="n">
+        <f aca="false">Y13-Y14-1</f>
         <v>3</v>
       </c>
     </row>
@@ -6116,8 +6324,8 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="56" t="n">
@@ -6137,10 +6345,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="O19" s="66" t="s">
+      <c r="O19" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="P19" s="66"/>
+      <c r="P19" s="67"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="56" t="n">
@@ -6165,8 +6373,8 @@
       <c r="J20" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="n">
@@ -6249,7 +6457,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="67" t="s">
+      <c r="I24" s="68" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8224,7 +8432,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H129" s="51" t="n">
+      <c r="H129" s="53" t="n">
         <f aca="false">SKEW(B6:B126)</f>
         <v>-0.105048407935913</v>
       </c>
@@ -8287,8 +8495,8 @@
         <v>6</v>
       </c>
       <c r="C140" s="10"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="68"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="15" t="s">
@@ -8297,24 +8505,24 @@
       <c r="C141" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
     </row>
     <row r="142" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B142" s="68" t="n">
+      <c r="B142" s="69" t="n">
         <f aca="false">'Id. + dados'!F7</f>
         <v>3</v>
       </c>
-      <c r="C142" s="68" t="n">
+      <c r="C142" s="69" t="n">
         <f aca="false">'Id. + dados'!G17</f>
         <v>3</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="J142" s="69" t="s">
+      <c r="J142" s="70" t="s">
         <v>70</v>
       </c>
       <c r="K142" s="44" t="s">
@@ -8352,17 +8560,17 @@
       <c r="A143" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B143" s="68" t="n">
+      <c r="B143" s="69" t="n">
         <f aca="false">'Id. + dados'!F36</f>
         <v>3</v>
       </c>
-      <c r="C143" s="68" t="n">
+      <c r="C143" s="69" t="n">
         <f aca="false">'Id. + dados'!G20</f>
         <v>3</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="J143" s="69" t="s">
+      <c r="J143" s="70" t="s">
         <v>77</v>
       </c>
       <c r="K143" s="47" t="n">
@@ -8387,11 +8595,11 @@
       <c r="A144" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B144" s="68" t="n">
+      <c r="B144" s="69" t="n">
         <f aca="false">'Id. + dados'!F44</f>
         <v>3</v>
       </c>
-      <c r="C144" s="68" t="n">
+      <c r="C144" s="69" t="n">
         <f aca="false">'Id. + dados'!G69</f>
         <v>3</v>
       </c>
@@ -8436,11 +8644,11 @@
       <c r="A145" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B145" s="68" t="n">
+      <c r="B145" s="69" t="n">
         <f aca="false">'Id. + dados'!F74</f>
         <v>3</v>
       </c>
-      <c r="C145" s="68" t="n">
+      <c r="C145" s="69" t="n">
         <f aca="false">'Id. + dados'!G14</f>
         <v>4</v>
       </c>
@@ -8494,11 +8702,11 @@
       <c r="A146" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B146" s="68" t="n">
+      <c r="B146" s="69" t="n">
         <f aca="false">'Id. + dados'!F87</f>
         <v>3</v>
       </c>
-      <c r="C146" s="68" t="n">
+      <c r="C146" s="69" t="n">
         <f aca="false">'Id. + dados'!G57</f>
         <v>4</v>
       </c>
@@ -8552,11 +8760,11 @@
       <c r="A147" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B147" s="68" t="n">
+      <c r="B147" s="69" t="n">
         <f aca="false">'Id. + dados'!F91</f>
         <v>3</v>
       </c>
-      <c r="C147" s="68" t="n">
+      <c r="C147" s="69" t="n">
         <f aca="false">'Id. + dados'!G64</f>
         <v>4</v>
       </c>
@@ -8610,11 +8818,11 @@
       <c r="A148" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B148" s="68" t="n">
+      <c r="B148" s="69" t="n">
         <f aca="false">'Id. + dados'!F5</f>
         <v>4</v>
       </c>
-      <c r="C148" s="68" t="n">
+      <c r="C148" s="69" t="n">
         <f aca="false">'Id. + dados'!G73</f>
         <v>4</v>
       </c>
@@ -8668,11 +8876,11 @@
       <c r="A149" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B149" s="68" t="n">
+      <c r="B149" s="69" t="n">
         <f aca="false">'Id. + dados'!F9</f>
         <v>4</v>
       </c>
-      <c r="C149" s="68" t="n">
+      <c r="C149" s="69" t="n">
         <f aca="false">'Id. + dados'!G80</f>
         <v>4</v>
       </c>
@@ -8726,11 +8934,11 @@
       <c r="A150" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B150" s="68" t="n">
+      <c r="B150" s="69" t="n">
         <f aca="false">'Id. + dados'!F11</f>
         <v>4</v>
       </c>
-      <c r="C150" s="68" t="n">
+      <c r="C150" s="69" t="n">
         <f aca="false">'Id. + dados'!G93</f>
         <v>4</v>
       </c>
@@ -8784,11 +8992,11 @@
       <c r="A151" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B151" s="68" t="n">
+      <c r="B151" s="69" t="n">
         <f aca="false">'Id. + dados'!F16</f>
         <v>4</v>
       </c>
-      <c r="C151" s="68" t="n">
+      <c r="C151" s="69" t="n">
         <f aca="false">'Id. + dados'!G11</f>
         <v>5</v>
       </c>
@@ -8842,11 +9050,11 @@
       <c r="A152" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B152" s="68" t="n">
+      <c r="B152" s="69" t="n">
         <f aca="false">'Id. + dados'!F23</f>
         <v>4</v>
       </c>
-      <c r="C152" s="68" t="n">
+      <c r="C152" s="69" t="n">
         <f aca="false">'Id. + dados'!G18</f>
         <v>5</v>
       </c>
@@ -8900,11 +9108,11 @@
       <c r="A153" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B153" s="68" t="n">
+      <c r="B153" s="69" t="n">
         <f aca="false">'Id. + dados'!F55</f>
         <v>4</v>
       </c>
-      <c r="C153" s="68" t="n">
+      <c r="C153" s="69" t="n">
         <f aca="false">'Id. + dados'!G22</f>
         <v>5</v>
       </c>
@@ -8949,11 +9157,11 @@
       <c r="A154" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B154" s="68" t="n">
+      <c r="B154" s="69" t="n">
         <f aca="false">'Id. + dados'!F62</f>
         <v>4</v>
       </c>
-      <c r="C154" s="68" t="n">
+      <c r="C154" s="69" t="n">
         <f aca="false">'Id. + dados'!G38</f>
         <v>5</v>
       </c>
@@ -8998,11 +9206,11 @@
       <c r="A155" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B155" s="68" t="n">
+      <c r="B155" s="69" t="n">
         <f aca="false">'Id. + dados'!F75</f>
         <v>4</v>
       </c>
-      <c r="C155" s="68" t="n">
+      <c r="C155" s="69" t="n">
         <f aca="false">'Id. + dados'!G42</f>
         <v>5</v>
       </c>
@@ -9047,11 +9255,11 @@
       <c r="A156" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B156" s="68" t="n">
+      <c r="B156" s="69" t="n">
         <f aca="false">'Id. + dados'!F4</f>
         <v>5</v>
       </c>
-      <c r="C156" s="68" t="n">
+      <c r="C156" s="69" t="n">
         <f aca="false">'Id. + dados'!G51</f>
         <v>5</v>
       </c>
@@ -9096,11 +9304,11 @@
       <c r="A157" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B157" s="68" t="n">
+      <c r="B157" s="69" t="n">
         <f aca="false">'Id. + dados'!F15</f>
         <v>5</v>
       </c>
-      <c r="C157" s="68" t="n">
+      <c r="C157" s="69" t="n">
         <f aca="false">'Id. + dados'!G52</f>
         <v>5</v>
       </c>
@@ -9145,11 +9353,11 @@
       <c r="A158" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B158" s="68" t="n">
+      <c r="B158" s="69" t="n">
         <f aca="false">'Id. + dados'!F26</f>
         <v>5</v>
       </c>
-      <c r="C158" s="68" t="n">
+      <c r="C158" s="69" t="n">
         <f aca="false">'Id. + dados'!G54</f>
         <v>5</v>
       </c>
@@ -9180,11 +9388,11 @@
       <c r="A159" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B159" s="68" t="n">
+      <c r="B159" s="69" t="n">
         <f aca="false">'Id. + dados'!F29</f>
         <v>5</v>
       </c>
-      <c r="C159" s="68" t="n">
+      <c r="C159" s="69" t="n">
         <f aca="false">'Id. + dados'!G55</f>
         <v>5</v>
       </c>
@@ -9198,14 +9406,20 @@
         <f aca="false">SUM(L144:L157)</f>
         <v>90</v>
       </c>
-      <c r="S159" s="61" t="s">
+      <c r="Q159" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="R159" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="S159" s="62" t="n">
+        <v>8</v>
       </c>
       <c r="T159" s="55" t="n">
         <f aca="false">SUM(T145:T152)</f>
         <v>8.55314909638611</v>
       </c>
-      <c r="U159" s="62" t="s">
+      <c r="U159" s="63" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9213,38 +9427,44 @@
       <c r="A160" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B160" s="68" t="n">
+      <c r="B160" s="69" t="n">
         <f aca="false">'Id. + dados'!F39</f>
         <v>5</v>
       </c>
-      <c r="C160" s="68" t="n">
+      <c r="C160" s="69" t="n">
         <f aca="false">'Id. + dados'!G63</f>
         <v>5</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="S160" s="61" t="s">
+      <c r="Q160" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="R160" s="61" t="s">
         <v>55</v>
+      </c>
+      <c r="S160" s="62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B161" s="68" t="n">
+      <c r="B161" s="69" t="n">
         <f aca="false">'Id. + dados'!F41</f>
         <v>5</v>
       </c>
-      <c r="C161" s="68" t="n">
+      <c r="C161" s="69" t="n">
         <f aca="false">'Id. + dados'!G72</f>
         <v>5</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="K161" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="S161" s="63" t="n">
+        <v>81</v>
+      </c>
+      <c r="S161" s="64" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -9252,11 +9472,11 @@
       <c r="A162" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B162" s="68" t="n">
+      <c r="B162" s="69" t="n">
         <f aca="false">'Id. + dados'!F50</f>
         <v>5</v>
       </c>
-      <c r="C162" s="68" t="n">
+      <c r="C162" s="69" t="n">
         <f aca="false">'Id. + dados'!G85</f>
         <v>5</v>
       </c>
@@ -9270,8 +9490,8 @@
         <f aca="false">SUMPRODUCT(J144:J157,L144:L157)/L159</f>
         <v>7.51111111111111</v>
       </c>
-      <c r="S162" s="0" t="s">
-        <v>81</v>
+      <c r="S162" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="T162" s="54" t="n">
         <f aca="false">CHIINV($S$161,$S$163)</f>
@@ -9282,20 +9502,21 @@
       <c r="A163" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B163" s="68" t="n">
+      <c r="B163" s="69" t="n">
         <f aca="false">'Id. + dados'!F54</f>
         <v>5</v>
       </c>
-      <c r="C163" s="68" t="n">
+      <c r="C163" s="69" t="n">
         <f aca="false">'Id. + dados'!G92</f>
         <v>5</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="R163" s="0" t="s">
+      <c r="R163" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="S163" s="0" t="n">
+      <c r="S163" s="62" t="n">
+        <f aca="false">S159-S160-1</f>
         <v>5</v>
       </c>
     </row>
@@ -9303,11 +9524,11 @@
       <c r="A164" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B164" s="68" t="n">
+      <c r="B164" s="69" t="n">
         <f aca="false">'Id. + dados'!F56</f>
         <v>5</v>
       </c>
-      <c r="C164" s="68" t="n">
+      <c r="C164" s="69" t="n">
         <f aca="false">'Id. + dados'!G5</f>
         <v>6</v>
       </c>
@@ -9318,11 +9539,11 @@
       <c r="A165" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B165" s="68" t="n">
+      <c r="B165" s="69" t="n">
         <f aca="false">'Id. + dados'!F61</f>
         <v>5</v>
       </c>
-      <c r="C165" s="68" t="n">
+      <c r="C165" s="69" t="n">
         <f aca="false">'Id. + dados'!G7</f>
         <v>6</v>
       </c>
@@ -9333,11 +9554,11 @@
       <c r="A166" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B166" s="68" t="n">
+      <c r="B166" s="69" t="n">
         <f aca="false">'Id. + dados'!F63</f>
         <v>5</v>
       </c>
-      <c r="C166" s="68" t="n">
+      <c r="C166" s="69" t="n">
         <f aca="false">'Id. + dados'!G23</f>
         <v>6</v>
       </c>
@@ -9348,11 +9569,11 @@
       <c r="A167" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B167" s="68" t="n">
+      <c r="B167" s="69" t="n">
         <f aca="false">'Id. + dados'!F70</f>
         <v>5</v>
       </c>
-      <c r="C167" s="68" t="n">
+      <c r="C167" s="69" t="n">
         <f aca="false">'Id. + dados'!G37</f>
         <v>6</v>
       </c>
@@ -9363,11 +9584,11 @@
       <c r="A168" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B168" s="68" t="n">
+      <c r="B168" s="69" t="n">
         <f aca="false">'Id. + dados'!F80</f>
         <v>5</v>
       </c>
-      <c r="C168" s="68" t="n">
+      <c r="C168" s="69" t="n">
         <f aca="false">'Id. + dados'!G40</f>
         <v>6</v>
       </c>
@@ -9378,11 +9599,11 @@
       <c r="A169" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B169" s="68" t="n">
+      <c r="B169" s="69" t="n">
         <f aca="false">'Id. + dados'!F81</f>
         <v>5</v>
       </c>
-      <c r="C169" s="68" t="n">
+      <c r="C169" s="69" t="n">
         <f aca="false">'Id. + dados'!G49</f>
         <v>6</v>
       </c>
@@ -9393,11 +9614,11 @@
       <c r="A170" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B170" s="68" t="n">
+      <c r="B170" s="69" t="n">
         <f aca="false">'Id. + dados'!F83</f>
         <v>5</v>
       </c>
-      <c r="C170" s="68" t="n">
+      <c r="C170" s="69" t="n">
         <f aca="false">'Id. + dados'!G76</f>
         <v>6</v>
       </c>
@@ -9408,11 +9629,11 @@
       <c r="A171" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B171" s="68" t="n">
+      <c r="B171" s="69" t="n">
         <f aca="false">'Id. + dados'!F85</f>
         <v>5</v>
       </c>
-      <c r="C171" s="68" t="n">
+      <c r="C171" s="69" t="n">
         <f aca="false">'Id. + dados'!G6</f>
         <v>7</v>
       </c>
@@ -9423,11 +9644,11 @@
       <c r="A172" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B172" s="68" t="n">
+      <c r="B172" s="69" t="n">
         <f aca="false">'Id. + dados'!F88</f>
         <v>5</v>
       </c>
-      <c r="C172" s="68" t="n">
+      <c r="C172" s="69" t="n">
         <f aca="false">'Id. + dados'!G10</f>
         <v>7</v>
       </c>
@@ -9438,11 +9659,11 @@
       <c r="A173" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B173" s="68" t="n">
+      <c r="B173" s="69" t="n">
         <f aca="false">'Id. + dados'!F92</f>
         <v>5</v>
       </c>
-      <c r="C173" s="68" t="n">
+      <c r="C173" s="69" t="n">
         <f aca="false">'Id. + dados'!G21</f>
         <v>7</v>
       </c>
@@ -9453,11 +9674,11 @@
       <c r="A174" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B174" s="68" t="n">
+      <c r="B174" s="69" t="n">
         <f aca="false">'Id. + dados'!F93</f>
         <v>5</v>
       </c>
-      <c r="C174" s="68" t="n">
+      <c r="C174" s="69" t="n">
         <f aca="false">'Id. + dados'!G26</f>
         <v>7</v>
       </c>
@@ -9468,11 +9689,11 @@
       <c r="A175" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B175" s="68" t="n">
+      <c r="B175" s="69" t="n">
         <f aca="false">'Id. + dados'!F12</f>
         <v>6</v>
       </c>
-      <c r="C175" s="68" t="n">
+      <c r="C175" s="69" t="n">
         <f aca="false">'Id. + dados'!G27</f>
         <v>7</v>
       </c>
@@ -9483,11 +9704,11 @@
       <c r="A176" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B176" s="68" t="n">
+      <c r="B176" s="69" t="n">
         <f aca="false">'Id. + dados'!F14</f>
         <v>6</v>
       </c>
-      <c r="C176" s="68" t="n">
+      <c r="C176" s="69" t="n">
         <f aca="false">'Id. + dados'!G29</f>
         <v>7</v>
       </c>
@@ -9498,11 +9719,11 @@
       <c r="A177" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B177" s="68" t="n">
+      <c r="B177" s="69" t="n">
         <f aca="false">'Id. + dados'!F20</f>
         <v>6</v>
       </c>
-      <c r="C177" s="68" t="n">
+      <c r="C177" s="69" t="n">
         <f aca="false">'Id. + dados'!G34</f>
         <v>7</v>
       </c>
@@ -9513,11 +9734,11 @@
       <c r="A178" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B178" s="68" t="n">
+      <c r="B178" s="69" t="n">
         <f aca="false">'Id. + dados'!F21</f>
         <v>6</v>
       </c>
-      <c r="C178" s="68" t="n">
+      <c r="C178" s="69" t="n">
         <f aca="false">'Id. + dados'!G35</f>
         <v>7</v>
       </c>
@@ -9528,11 +9749,11 @@
       <c r="A179" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B179" s="68" t="n">
+      <c r="B179" s="69" t="n">
         <f aca="false">'Id. + dados'!F22</f>
         <v>6</v>
       </c>
-      <c r="C179" s="68" t="n">
+      <c r="C179" s="69" t="n">
         <f aca="false">'Id. + dados'!G44</f>
         <v>7</v>
       </c>
@@ -9543,11 +9764,11 @@
       <c r="A180" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B180" s="68" t="n">
+      <c r="B180" s="69" t="n">
         <f aca="false">'Id. + dados'!F25</f>
         <v>6</v>
       </c>
-      <c r="C180" s="68" t="n">
+      <c r="C180" s="69" t="n">
         <f aca="false">'Id. + dados'!G48</f>
         <v>7</v>
       </c>
@@ -9558,11 +9779,11 @@
       <c r="A181" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B181" s="68" t="n">
+      <c r="B181" s="69" t="n">
         <f aca="false">'Id. + dados'!F32</f>
         <v>6</v>
       </c>
-      <c r="C181" s="68" t="n">
+      <c r="C181" s="69" t="n">
         <f aca="false">'Id. + dados'!G53</f>
         <v>7</v>
       </c>
@@ -9573,11 +9794,11 @@
       <c r="A182" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B182" s="68" t="n">
+      <c r="B182" s="69" t="n">
         <f aca="false">'Id. + dados'!F33</f>
         <v>6</v>
       </c>
-      <c r="C182" s="68" t="n">
+      <c r="C182" s="69" t="n">
         <f aca="false">'Id. + dados'!G58</f>
         <v>7</v>
       </c>
@@ -9588,11 +9809,11 @@
       <c r="A183" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B183" s="68" t="n">
+      <c r="B183" s="69" t="n">
         <f aca="false">'Id. + dados'!F38</f>
         <v>6</v>
       </c>
-      <c r="C183" s="68" t="n">
+      <c r="C183" s="69" t="n">
         <f aca="false">'Id. + dados'!G59</f>
         <v>7</v>
       </c>
@@ -9603,11 +9824,11 @@
       <c r="A184" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B184" s="68" t="n">
+      <c r="B184" s="69" t="n">
         <f aca="false">'Id. + dados'!F46</f>
         <v>6</v>
       </c>
-      <c r="C184" s="68" t="n">
+      <c r="C184" s="69" t="n">
         <f aca="false">'Id. + dados'!G60</f>
         <v>7</v>
       </c>
@@ -9618,11 +9839,11 @@
       <c r="A185" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B185" s="68" t="n">
+      <c r="B185" s="69" t="n">
         <f aca="false">'Id. + dados'!F51</f>
         <v>6</v>
       </c>
-      <c r="C185" s="68" t="n">
+      <c r="C185" s="69" t="n">
         <f aca="false">'Id. + dados'!G71</f>
         <v>7</v>
       </c>
@@ -9633,11 +9854,11 @@
       <c r="A186" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B186" s="68" t="n">
+      <c r="B186" s="69" t="n">
         <f aca="false">'Id. + dados'!F52</f>
         <v>6</v>
       </c>
-      <c r="C186" s="68" t="n">
+      <c r="C186" s="69" t="n">
         <f aca="false">'Id. + dados'!G77</f>
         <v>7</v>
       </c>
@@ -9648,11 +9869,11 @@
       <c r="A187" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B187" s="68" t="n">
+      <c r="B187" s="69" t="n">
         <f aca="false">'Id. + dados'!F53</f>
         <v>6</v>
       </c>
-      <c r="C187" s="68" t="n">
+      <c r="C187" s="69" t="n">
         <f aca="false">'Id. + dados'!G78</f>
         <v>7</v>
       </c>
@@ -9663,11 +9884,11 @@
       <c r="A188" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B188" s="68" t="n">
+      <c r="B188" s="69" t="n">
         <f aca="false">'Id. + dados'!F57</f>
         <v>6</v>
       </c>
-      <c r="C188" s="68" t="n">
+      <c r="C188" s="69" t="n">
         <f aca="false">'Id. + dados'!G86</f>
         <v>7</v>
       </c>
@@ -9678,11 +9899,11 @@
       <c r="A189" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B189" s="68" t="n">
+      <c r="B189" s="69" t="n">
         <f aca="false">'Id. + dados'!F65</f>
         <v>6</v>
       </c>
-      <c r="C189" s="68" t="n">
+      <c r="C189" s="69" t="n">
         <f aca="false">'Id. + dados'!G87</f>
         <v>7</v>
       </c>
@@ -9693,11 +9914,11 @@
       <c r="A190" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B190" s="68" t="n">
+      <c r="B190" s="69" t="n">
         <f aca="false">'Id. + dados'!F71</f>
         <v>6</v>
       </c>
-      <c r="C190" s="68" t="n">
+      <c r="C190" s="69" t="n">
         <f aca="false">'Id. + dados'!G4</f>
         <v>8</v>
       </c>
@@ -9708,11 +9929,11 @@
       <c r="A191" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B191" s="68" t="n">
+      <c r="B191" s="69" t="n">
         <f aca="false">'Id. + dados'!F8</f>
         <v>7</v>
       </c>
-      <c r="C191" s="68" t="n">
+      <c r="C191" s="69" t="n">
         <f aca="false">'Id. + dados'!G15</f>
         <v>8</v>
       </c>
@@ -9723,11 +9944,11 @@
       <c r="A192" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B192" s="68" t="n">
+      <c r="B192" s="69" t="n">
         <f aca="false">'Id. + dados'!F27</f>
         <v>7</v>
       </c>
-      <c r="C192" s="68" t="n">
+      <c r="C192" s="69" t="n">
         <f aca="false">'Id. + dados'!G16</f>
         <v>8</v>
       </c>
@@ -9738,11 +9959,11 @@
       <c r="A193" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B193" s="68" t="n">
+      <c r="B193" s="69" t="n">
         <f aca="false">'Id. + dados'!F31</f>
         <v>7</v>
       </c>
-      <c r="C193" s="68" t="n">
+      <c r="C193" s="69" t="n">
         <f aca="false">'Id. + dados'!G24</f>
         <v>8</v>
       </c>
@@ -9753,11 +9974,11 @@
       <c r="A194" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B194" s="68" t="n">
+      <c r="B194" s="69" t="n">
         <f aca="false">'Id. + dados'!F35</f>
         <v>7</v>
       </c>
-      <c r="C194" s="68" t="n">
+      <c r="C194" s="69" t="n">
         <f aca="false">'Id. + dados'!G28</f>
         <v>8</v>
       </c>
@@ -9768,11 +9989,11 @@
       <c r="A195" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B195" s="68" t="n">
+      <c r="B195" s="69" t="n">
         <f aca="false">'Id. + dados'!F40</f>
         <v>7</v>
       </c>
-      <c r="C195" s="68" t="n">
+      <c r="C195" s="69" t="n">
         <f aca="false">'Id. + dados'!G31</f>
         <v>8</v>
       </c>
@@ -9783,11 +10004,11 @@
       <c r="A196" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B196" s="68" t="n">
+      <c r="B196" s="69" t="n">
         <f aca="false">'Id. + dados'!F43</f>
         <v>7</v>
       </c>
-      <c r="C196" s="68" t="n">
+      <c r="C196" s="69" t="n">
         <f aca="false">'Id. + dados'!G36</f>
         <v>8</v>
       </c>
@@ -9798,11 +10019,11 @@
       <c r="A197" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B197" s="68" t="n">
+      <c r="B197" s="69" t="n">
         <f aca="false">'Id. + dados'!F47</f>
         <v>7</v>
       </c>
-      <c r="C197" s="68" t="n">
+      <c r="C197" s="69" t="n">
         <f aca="false">'Id. + dados'!G46</f>
         <v>8</v>
       </c>
@@ -9813,11 +10034,11 @@
       <c r="A198" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B198" s="68" t="n">
+      <c r="B198" s="69" t="n">
         <f aca="false">'Id. + dados'!F49</f>
         <v>7</v>
       </c>
-      <c r="C198" s="68" t="n">
+      <c r="C198" s="69" t="n">
         <f aca="false">'Id. + dados'!G50</f>
         <v>8</v>
       </c>
@@ -9828,11 +10049,11 @@
       <c r="A199" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B199" s="68" t="n">
+      <c r="B199" s="69" t="n">
         <f aca="false">'Id. + dados'!F59</f>
         <v>7</v>
       </c>
-      <c r="C199" s="68" t="n">
+      <c r="C199" s="69" t="n">
         <f aca="false">'Id. + dados'!G62</f>
         <v>8</v>
       </c>
@@ -9843,11 +10064,11 @@
       <c r="A200" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="B200" s="68" t="n">
+      <c r="B200" s="69" t="n">
         <f aca="false">'Id. + dados'!F76</f>
         <v>7</v>
       </c>
-      <c r="C200" s="68" t="n">
+      <c r="C200" s="69" t="n">
         <f aca="false">'Id. + dados'!G74</f>
         <v>8</v>
       </c>
@@ -9858,11 +10079,11 @@
       <c r="A201" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B201" s="68" t="n">
+      <c r="B201" s="69" t="n">
         <f aca="false">'Id. + dados'!F77</f>
         <v>7</v>
       </c>
-      <c r="C201" s="68" t="n">
+      <c r="C201" s="69" t="n">
         <f aca="false">'Id. + dados'!G75</f>
         <v>8</v>
       </c>
@@ -9873,11 +10094,11 @@
       <c r="A202" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="B202" s="68" t="n">
+      <c r="B202" s="69" t="n">
         <f aca="false">'Id. + dados'!F79</f>
         <v>7</v>
       </c>
-      <c r="C202" s="68" t="n">
+      <c r="C202" s="69" t="n">
         <f aca="false">'Id. + dados'!G79</f>
         <v>8</v>
       </c>
@@ -9888,11 +10109,11 @@
       <c r="A203" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="B203" s="68" t="n">
+      <c r="B203" s="69" t="n">
         <f aca="false">'Id. + dados'!F90</f>
         <v>7</v>
       </c>
-      <c r="C203" s="68" t="n">
+      <c r="C203" s="69" t="n">
         <f aca="false">'Id. + dados'!G83</f>
         <v>8</v>
       </c>
@@ -9903,11 +10124,11 @@
       <c r="A204" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B204" s="68" t="n">
+      <c r="B204" s="69" t="n">
         <f aca="false">'Id. + dados'!F6</f>
         <v>8</v>
       </c>
-      <c r="C204" s="68" t="n">
+      <c r="C204" s="69" t="n">
         <f aca="false">'Id. + dados'!G88</f>
         <v>8</v>
       </c>
@@ -9918,11 +10139,11 @@
       <c r="A205" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B205" s="68" t="n">
+      <c r="B205" s="69" t="n">
         <f aca="false">'Id. + dados'!F17</f>
         <v>8</v>
       </c>
-      <c r="C205" s="68" t="n">
+      <c r="C205" s="69" t="n">
         <f aca="false">'Id. + dados'!G8</f>
         <v>9</v>
       </c>
@@ -9933,11 +10154,11 @@
       <c r="A206" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B206" s="68" t="n">
+      <c r="B206" s="69" t="n">
         <f aca="false">'Id. + dados'!F24</f>
         <v>8</v>
       </c>
-      <c r="C206" s="68" t="n">
+      <c r="C206" s="69" t="n">
         <f aca="false">'Id. + dados'!G12</f>
         <v>9</v>
       </c>
@@ -9948,11 +10169,11 @@
       <c r="A207" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B207" s="68" t="n">
+      <c r="B207" s="69" t="n">
         <f aca="false">'Id. + dados'!F34</f>
         <v>8</v>
       </c>
-      <c r="C207" s="68" t="n">
+      <c r="C207" s="69" t="n">
         <f aca="false">'Id. + dados'!G25</f>
         <v>9</v>
       </c>
@@ -9963,11 +10184,11 @@
       <c r="A208" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B208" s="68" t="n">
+      <c r="B208" s="69" t="n">
         <f aca="false">'Id. + dados'!F58</f>
         <v>8</v>
       </c>
-      <c r="C208" s="68" t="n">
+      <c r="C208" s="69" t="n">
         <f aca="false">'Id. + dados'!G39</f>
         <v>9</v>
       </c>
@@ -9978,11 +10199,11 @@
       <c r="A209" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B209" s="68" t="n">
+      <c r="B209" s="69" t="n">
         <f aca="false">'Id. + dados'!F64</f>
         <v>8</v>
       </c>
-      <c r="C209" s="68" t="n">
+      <c r="C209" s="69" t="n">
         <f aca="false">'Id. + dados'!G43</f>
         <v>9</v>
       </c>
@@ -9993,11 +10214,11 @@
       <c r="A210" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B210" s="68" t="n">
+      <c r="B210" s="69" t="n">
         <f aca="false">'Id. + dados'!F68</f>
         <v>8</v>
       </c>
-      <c r="C210" s="68" t="n">
+      <c r="C210" s="69" t="n">
         <f aca="false">'Id. + dados'!G47</f>
         <v>9</v>
       </c>
@@ -10008,11 +10229,11 @@
       <c r="A211" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B211" s="68" t="n">
+      <c r="B211" s="69" t="n">
         <f aca="false">'Id. + dados'!F72</f>
         <v>8</v>
       </c>
-      <c r="C211" s="68" t="n">
+      <c r="C211" s="69" t="n">
         <f aca="false">'Id. + dados'!G89</f>
         <v>9</v>
       </c>
@@ -10023,11 +10244,11 @@
       <c r="A212" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B212" s="68" t="n">
+      <c r="B212" s="69" t="n">
         <f aca="false">'Id. + dados'!F84</f>
         <v>8</v>
       </c>
-      <c r="C212" s="68" t="n">
+      <c r="C212" s="69" t="n">
         <f aca="false">'Id. + dados'!G90</f>
         <v>9</v>
       </c>
@@ -10038,11 +10259,11 @@
       <c r="A213" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B213" s="68" t="n">
+      <c r="B213" s="69" t="n">
         <f aca="false">'Id. + dados'!F86</f>
         <v>8</v>
       </c>
-      <c r="C213" s="68" t="n">
+      <c r="C213" s="69" t="n">
         <f aca="false">'Id. + dados'!G19</f>
         <v>10</v>
       </c>
@@ -10053,11 +10274,11 @@
       <c r="A214" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B214" s="68" t="n">
+      <c r="B214" s="69" t="n">
         <f aca="false">'Id. + dados'!F89</f>
         <v>8</v>
       </c>
-      <c r="C214" s="68" t="n">
+      <c r="C214" s="69" t="n">
         <f aca="false">'Id. + dados'!G30</f>
         <v>10</v>
       </c>
@@ -10068,11 +10289,11 @@
       <c r="A215" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B215" s="68" t="n">
+      <c r="B215" s="69" t="n">
         <f aca="false">'Id. + dados'!F10</f>
         <v>9</v>
       </c>
-      <c r="C215" s="68" t="n">
+      <c r="C215" s="69" t="n">
         <f aca="false">'Id. + dados'!G32</f>
         <v>10</v>
       </c>
@@ -10083,11 +10304,11 @@
       <c r="A216" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B216" s="68" t="n">
+      <c r="B216" s="69" t="n">
         <f aca="false">'Id. + dados'!F37</f>
         <v>9</v>
       </c>
-      <c r="C216" s="68" t="n">
+      <c r="C216" s="69" t="n">
         <f aca="false">'Id. + dados'!G45</f>
         <v>10</v>
       </c>
@@ -10098,11 +10319,11 @@
       <c r="A217" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B217" s="68" t="n">
+      <c r="B217" s="69" t="n">
         <f aca="false">'Id. + dados'!F42</f>
         <v>9</v>
       </c>
-      <c r="C217" s="68" t="n">
+      <c r="C217" s="69" t="n">
         <f aca="false">'Id. + dados'!G66</f>
         <v>10</v>
       </c>
@@ -10113,11 +10334,11 @@
       <c r="A218" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B218" s="68" t="n">
+      <c r="B218" s="69" t="n">
         <f aca="false">'Id. + dados'!F69</f>
         <v>9</v>
       </c>
-      <c r="C218" s="68" t="n">
+      <c r="C218" s="69" t="n">
         <f aca="false">'Id. + dados'!G67</f>
         <v>10</v>
       </c>
@@ -10128,11 +10349,11 @@
       <c r="A219" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B219" s="68" t="n">
+      <c r="B219" s="69" t="n">
         <f aca="false">'Id. + dados'!F73</f>
         <v>9</v>
       </c>
-      <c r="C219" s="68" t="n">
+      <c r="C219" s="69" t="n">
         <f aca="false">'Id. + dados'!G68</f>
         <v>10</v>
       </c>
@@ -10143,11 +10364,11 @@
       <c r="A220" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B220" s="68" t="n">
+      <c r="B220" s="69" t="n">
         <f aca="false">'Id. + dados'!F82</f>
         <v>9</v>
       </c>
-      <c r="C220" s="68" t="n">
+      <c r="C220" s="69" t="n">
         <f aca="false">'Id. + dados'!G81</f>
         <v>10</v>
       </c>
@@ -10158,11 +10379,11 @@
       <c r="A221" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B221" s="68" t="n">
+      <c r="B221" s="69" t="n">
         <f aca="false">'Id. + dados'!F19</f>
         <v>10</v>
       </c>
-      <c r="C221" s="68" t="n">
+      <c r="C221" s="69" t="n">
         <f aca="false">'Id. + dados'!G82</f>
         <v>10</v>
       </c>
@@ -10173,11 +10394,11 @@
       <c r="A222" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B222" s="68" t="n">
+      <c r="B222" s="69" t="n">
         <f aca="false">'Id. + dados'!F28</f>
         <v>10</v>
       </c>
-      <c r="C222" s="68" t="n">
+      <c r="C222" s="69" t="n">
         <f aca="false">'Id. + dados'!G84</f>
         <v>10</v>
       </c>
@@ -10188,11 +10409,11 @@
       <c r="A223" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="B223" s="68" t="n">
+      <c r="B223" s="69" t="n">
         <f aca="false">'Id. + dados'!F48</f>
         <v>10</v>
       </c>
-      <c r="C223" s="68" t="n">
+      <c r="C223" s="69" t="n">
         <f aca="false">'Id. + dados'!G91</f>
         <v>10</v>
       </c>
@@ -10203,11 +10424,11 @@
       <c r="A224" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B224" s="68" t="n">
+      <c r="B224" s="69" t="n">
         <f aca="false">'Id. + dados'!F60</f>
         <v>10</v>
       </c>
-      <c r="C224" s="68" t="n">
+      <c r="C224" s="69" t="n">
         <f aca="false">'Id. + dados'!G9</f>
         <v>11</v>
       </c>
@@ -10218,11 +10439,11 @@
       <c r="A225" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="B225" s="68" t="n">
+      <c r="B225" s="69" t="n">
         <f aca="false">'Id. + dados'!F66</f>
         <v>10</v>
       </c>
-      <c r="C225" s="68" t="n">
+      <c r="C225" s="69" t="n">
         <f aca="false">'Id. + dados'!G61</f>
         <v>11</v>
       </c>
@@ -10233,11 +10454,11 @@
       <c r="A226" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B226" s="68" t="n">
+      <c r="B226" s="69" t="n">
         <f aca="false">'Id. + dados'!F18</f>
         <v>11</v>
       </c>
-      <c r="C226" s="68" t="n">
+      <c r="C226" s="69" t="n">
         <f aca="false">'Id. + dados'!G70</f>
         <v>11</v>
       </c>
@@ -10248,11 +10469,11 @@
       <c r="A227" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="B227" s="68" t="n">
+      <c r="B227" s="69" t="n">
         <f aca="false">'Id. + dados'!F30</f>
         <v>11</v>
       </c>
-      <c r="C227" s="68" t="n">
+      <c r="C227" s="69" t="n">
         <f aca="false">'Id. + dados'!G56</f>
         <v>12</v>
       </c>
@@ -10263,11 +10484,11 @@
       <c r="A228" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="B228" s="68" t="n">
+      <c r="B228" s="69" t="n">
         <f aca="false">'Id. + dados'!F67</f>
         <v>11</v>
       </c>
-      <c r="C228" s="68" t="n">
+      <c r="C228" s="69" t="n">
         <f aca="false">'Id. + dados'!G65</f>
         <v>12</v>
       </c>
@@ -10278,11 +10499,11 @@
       <c r="A229" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="B229" s="68" t="n">
+      <c r="B229" s="69" t="n">
         <f aca="false">'Id. + dados'!F78</f>
         <v>11</v>
       </c>
-      <c r="C229" s="68" t="n">
+      <c r="C229" s="69" t="n">
         <f aca="false">'Id. + dados'!G41</f>
         <v>13</v>
       </c>
@@ -10293,11 +10514,11 @@
       <c r="A230" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B230" s="68" t="n">
+      <c r="B230" s="69" t="n">
         <f aca="false">'Id. + dados'!F45</f>
         <v>13</v>
       </c>
-      <c r="C230" s="68" t="n">
+      <c r="C230" s="69" t="n">
         <f aca="false">'Id. + dados'!G33</f>
         <v>15</v>
       </c>
@@ -10308,11 +10529,11 @@
       <c r="A231" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B231" s="68" t="n">
+      <c r="B231" s="69" t="n">
         <f aca="false">'Id. + dados'!F13</f>
         <v>14</v>
       </c>
-      <c r="C231" s="68" t="n">
+      <c r="C231" s="69" t="n">
         <f aca="false">'Id. + dados'!G13</f>
         <v>16</v>
       </c>
@@ -10342,7 +10563,7 @@
         <v>676</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10390,7 +10611,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="51" t="n">
-        <f aca="false">STDEV(B142:B233)</f>
+        <f aca="false">_xlfn.STDEV.S(B142:B233)</f>
         <v>2.31115732691714</v>
       </c>
       <c r="C241" s="51" t="n">
